--- a/BetaVersion/DIGGSTestPropertyDefinitions.xlsx
+++ b/BetaVersion/DIGGSTestPropertyDefinitions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/diggs-dictionaries/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rossc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46DFC8A7-64AA-114C-A7EE-8FD11BE2F174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{054B7402-6439-42AE-9D2D-E0E62F272834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67200" yWindow="5620" windowWidth="38140" windowHeight="20260" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DictionaryName" sheetId="3" r:id="rId1"/>
@@ -2452,7 +2452,7 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11.83203125" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" customWidth="1"/>
@@ -2460,7 +2460,7 @@
     <col min="4" max="4" width="76" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>419</v>
       </c>
@@ -2474,7 +2474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="3" customFormat="1" ht="306" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" s="3" customFormat="1" ht="279" x14ac:dyDescent="0.35">
       <c r="B2" s="3" t="s">
         <v>237</v>
       </c>
@@ -2499,12 +2499,12 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H146"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19.1640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="25.83203125" style="3" customWidth="1"/>
@@ -2516,7 +2516,7 @@
     <col min="8" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>419</v>
       </c>
@@ -2542,7 +2542,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="11" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="11" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C2,AssociatedElements!B$2:B3196,1,FALSE)),"Not used","")</f>
         <v/>
@@ -2566,7 +2566,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C3,AssociatedElements!B$2:B3197,1,FALSE)),"Not used","")</f>
         <v/>
@@ -2591,7 +2591,7 @@
       </c>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" s="11" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" s="11" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C4,AssociatedElements!B$2:B3198,1,FALSE)),"Not used","")</f>
         <v/>
@@ -2616,7 +2616,7 @@
       </c>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="31" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C5,AssociatedElements!B$2:B3199,1,FALSE)),"Not used","")</f>
         <v/>
@@ -2640,7 +2640,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="31" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C6,AssociatedElements!B$2:B3200,1,FALSE)),"Not used","")</f>
         <v/>
@@ -2664,7 +2664,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="31" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C7,AssociatedElements!B$2:B3201,1,FALSE)),"Not used","")</f>
         <v/>
@@ -2688,7 +2688,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="31" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C8,AssociatedElements!B$2:B3202,1,FALSE)),"Not used","")</f>
         <v/>
@@ -2712,7 +2712,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="31" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C9,AssociatedElements!B$2:B3203,1,FALSE)),"Not used","")</f>
         <v/>
@@ -2736,7 +2736,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="31" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C10,AssociatedElements!B$2:B3204,1,FALSE)),"Not used","")</f>
         <v/>
@@ -2760,7 +2760,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C11,AssociatedElements!B$2:B3205,1,FALSE)),"Not used","")</f>
         <v/>
@@ -2784,7 +2784,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C12,AssociatedElements!B$2:B3206,1,FALSE)),"Not used","")</f>
         <v/>
@@ -2808,7 +2808,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C13,AssociatedElements!B$2:B3207,1,FALSE)),"Not used","")</f>
         <v/>
@@ -2833,7 +2833,7 @@
       </c>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="31" x14ac:dyDescent="0.35">
       <c r="A14" s="16" t="str">
         <f>IF(ISNA(VLOOKUP(C14,AssociatedElements!B$2:B3327,1,FALSE)),"Not used","")</f>
         <v/>
@@ -2857,7 +2857,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C15,AssociatedElements!B$2:B3208,1,FALSE)),"Not used","")</f>
         <v/>
@@ -2881,7 +2881,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="31" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C16,AssociatedElements!B$2:B3209,1,FALSE)),"Not used","")</f>
         <v/>
@@ -2906,7 +2906,7 @@
       </c>
       <c r="H16" s="11"/>
     </row>
-    <row r="17" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A17" s="16" t="str">
         <f>IF(ISNA(VLOOKUP(C17,AssociatedElements!B$2:B3210,1,FALSE)),"Not used","")</f>
         <v/>
@@ -2931,7 +2931,7 @@
       </c>
       <c r="H17" s="11"/>
     </row>
-    <row r="18" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C18,AssociatedElements!B$2:B3210,1,FALSE)),"Not used","")</f>
         <v/>
@@ -2955,7 +2955,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="93" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C19,AssociatedElements!B$2:B3211,1,FALSE)),"Not used","")</f>
         <v/>
@@ -2979,7 +2979,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C20,AssociatedElements!B$2:B3212,1,FALSE)),"Not used","")</f>
         <v/>
@@ -3003,7 +3003,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C21,AssociatedElements!B$2:B3213,1,FALSE)),"Not used","")</f>
         <v/>
@@ -3027,7 +3027,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="31" x14ac:dyDescent="0.35">
       <c r="A22" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C22,AssociatedElements!B$2:B3214,1,FALSE)),"Not used","")</f>
         <v/>
@@ -3051,7 +3051,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="31" x14ac:dyDescent="0.35">
       <c r="A23" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C23,AssociatedElements!B$2:B3215,1,FALSE)),"Not used","")</f>
         <v/>
@@ -3075,7 +3075,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="31" x14ac:dyDescent="0.35">
       <c r="A24" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C24,AssociatedElements!B$2:B3216,1,FALSE)),"Not used","")</f>
         <v/>
@@ -3099,7 +3099,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C25,AssociatedElements!B$2:B3217,1,FALSE)),"Not used","")</f>
         <v/>
@@ -3123,7 +3123,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A26" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C26,AssociatedElements!B$2:B3218,1,FALSE)),"Not used","")</f>
         <v/>
@@ -3147,7 +3147,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C27,AssociatedElements!B$2:B3219,1,FALSE)),"Not used","")</f>
         <v/>
@@ -3171,7 +3171,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C28,AssociatedElements!B$2:B3220,1,FALSE)),"Not used","")</f>
         <v/>
@@ -3195,7 +3195,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C29,AssociatedElements!B$2:B3221,1,FALSE)),"Not used","")</f>
         <v/>
@@ -3219,7 +3219,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C30,AssociatedElements!B$2:B3222,1,FALSE)),"Not used","")</f>
         <v/>
@@ -3243,7 +3243,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="31" x14ac:dyDescent="0.35">
       <c r="A31" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C31,AssociatedElements!B$2:B3223,1,FALSE)),"Not used","")</f>
         <v/>
@@ -3267,7 +3267,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C32,AssociatedElements!B$2:B3224,1,FALSE)),"Not used","")</f>
         <v/>
@@ -3291,7 +3291,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C33,AssociatedElements!B$2:B3225,1,FALSE)),"Not used","")</f>
         <v/>
@@ -3315,7 +3315,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A34" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C34,AssociatedElements!B$2:B3226,1,FALSE)),"Not used","")</f>
         <v/>
@@ -3339,7 +3339,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="31" x14ac:dyDescent="0.35">
       <c r="A35" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C35,AssociatedElements!B$2:B3227,1,FALSE)),"Not used","")</f>
         <v/>
@@ -3363,7 +3363,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C36,AssociatedElements!B$2:B3228,1,FALSE)),"Not used","")</f>
         <v/>
@@ -3387,7 +3387,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="16" t="str">
         <f>IF(ISNA(VLOOKUP(C37,AssociatedElements!B$2:B3230,1,FALSE)),"Not used","")</f>
         <v/>
@@ -3411,7 +3411,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A38" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C38,AssociatedElements!B$2:B3229,1,FALSE)),"Not used","")</f>
         <v/>
@@ -3435,7 +3435,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="31" x14ac:dyDescent="0.35">
       <c r="A39" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C39,AssociatedElements!B$2:B3230,1,FALSE)),"Not used","")</f>
         <v/>
@@ -3459,7 +3459,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="31" x14ac:dyDescent="0.35">
       <c r="A40" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C40,AssociatedElements!B$2:B3231,1,FALSE)),"Not used","")</f>
         <v/>
@@ -3483,7 +3483,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="31" x14ac:dyDescent="0.35">
       <c r="A41" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C41,AssociatedElements!B$2:B3232,1,FALSE)),"Not used","")</f>
         <v/>
@@ -3507,7 +3507,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" ht="31" x14ac:dyDescent="0.35">
       <c r="A42" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C42,AssociatedElements!B$2:B3233,1,FALSE)),"Not used","")</f>
         <v/>
@@ -3531,7 +3531,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="31" x14ac:dyDescent="0.35">
       <c r="A43" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C43,AssociatedElements!B$2:B3234,1,FALSE)),"Not used","")</f>
         <v/>
@@ -3555,7 +3555,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C44,AssociatedElements!B$2:B3235,1,FALSE)),"Not used","")</f>
         <v/>
@@ -3579,7 +3579,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C45,AssociatedElements!B$2:B3236,1,FALSE)),"Not used","")</f>
         <v/>
@@ -3600,7 +3600,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="31" x14ac:dyDescent="0.35">
       <c r="A46" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C46,AssociatedElements!B$2:B3237,1,FALSE)),"Not used","")</f>
         <v/>
@@ -3624,7 +3624,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A47" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C47,AssociatedElements!B$2:B3238,1,FALSE)),"Not used","")</f>
         <v/>
@@ -3648,7 +3648,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C48,AssociatedElements!B$2:B3239,1,FALSE)),"Not used","")</f>
         <v/>
@@ -3672,7 +3672,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A49" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C49,AssociatedElements!B$2:B3259,1,FALSE)),"Not used","")</f>
         <v/>
@@ -3696,7 +3696,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C50,AssociatedElements!B$2:B3240,1,FALSE)),"Not used","")</f>
         <v/>
@@ -3720,7 +3720,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="16" t="str">
         <f>IF(ISNA(VLOOKUP(C51,AssociatedElements!B$2:B3334,1,FALSE)),"Not used","")</f>
         <v/>
@@ -3744,7 +3744,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" ht="62" x14ac:dyDescent="0.35">
       <c r="A52" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C52,AssociatedElements!B$2:B3243,1,FALSE)),"Not used","")</f>
         <v/>
@@ -3768,7 +3768,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="16" t="str">
         <f>IF(ISNA(VLOOKUP(C53,AssociatedElements!B$2:B3328,1,FALSE)),"Not used","")</f>
         <v/>
@@ -3792,7 +3792,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C54,AssociatedElements!B$2:B3244,1,FALSE)),"Not used","")</f>
         <v/>
@@ -3816,7 +3816,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C55,AssociatedElements!B$2:B3245,1,FALSE)),"Not used","")</f>
         <v/>
@@ -3840,7 +3840,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" ht="31" x14ac:dyDescent="0.35">
       <c r="A56" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C56,AssociatedElements!B$2:B3246,1,FALSE)),"Not used","")</f>
         <v/>
@@ -3864,7 +3864,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C57,AssociatedElements!B$2:B3247,1,FALSE)),"Not used","")</f>
         <v/>
@@ -3888,7 +3888,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" ht="31" x14ac:dyDescent="0.35">
       <c r="A58" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C58,AssociatedElements!B$2:B3248,1,FALSE)),"Not used","")</f>
         <v/>
@@ -3912,7 +3912,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A59" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C59,AssociatedElements!B$2:B3249,1,FALSE)),"Not used","")</f>
         <v/>
@@ -3936,7 +3936,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A60" s="16" t="str">
         <f>IF(ISNA(VLOOKUP(C60,AssociatedElements!B$2:B3254,1,FALSE)),"Not used","")</f>
         <v/>
@@ -3960,7 +3960,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" ht="31" x14ac:dyDescent="0.35">
       <c r="A61" s="16" t="str">
         <f>IF(ISNA(VLOOKUP(C61,AssociatedElements!B$2:B3341,1,FALSE)),"Not used","")</f>
         <v/>
@@ -3984,7 +3984,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="16" t="str">
         <f>IF(ISNA(VLOOKUP(C62,AssociatedElements!B$2:B3256,1,FALSE)),"Not used","")</f>
         <v/>
@@ -4008,7 +4008,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="16" t="str">
         <f>IF(ISNA(VLOOKUP(C63,AssociatedElements!B$2:B3250,1,FALSE)),"Not used","")</f>
         <v/>
@@ -4030,7 +4030,7 @@
       </c>
       <c r="G63" s="4"/>
     </row>
-    <row r="64" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A64" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C64,AssociatedElements!B$2:B3250,1,FALSE)),"Not used","")</f>
         <v/>
@@ -4054,7 +4054,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" ht="31" x14ac:dyDescent="0.35">
       <c r="A65" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C65,AssociatedElements!B$2:B3251,1,FALSE)),"Not used","")</f>
         <v/>
@@ -4078,7 +4078,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" s="16" t="str">
         <f>IF(ISNA(VLOOKUP(C66,AssociatedElements!B$2:B3252,1,FALSE)),"Not used","")</f>
         <v/>
@@ -4102,7 +4102,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="16" t="str">
         <f>IF(ISNA(VLOOKUP(C67,AssociatedElements!B$2:B3252,1,FALSE)),"Not used","")</f>
         <v/>
@@ -4126,7 +4126,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C68,AssociatedElements!B$2:B3253,1,FALSE)),"Not used","")</f>
         <v/>
@@ -4147,7 +4147,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" s="16" t="str">
         <f>IF(ISNA(VLOOKUP(C69,AssociatedElements!B$2:B3260,1,FALSE)),"Not used","")</f>
         <v/>
@@ -4169,7 +4169,7 @@
       </c>
       <c r="G69" s="4"/>
     </row>
-    <row r="70" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C70,AssociatedElements!B$2:B3254,1,FALSE)),"Not used","")</f>
         <v/>
@@ -4190,7 +4190,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A71" s="24" t="str">
         <f>IF(ISNA(VLOOKUP(C71,AssociatedElements!B$2:B3344,1,FALSE)),"Not used","")</f>
         <v/>
@@ -4214,7 +4214,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C72,AssociatedElements!B$2:B3255,1,FALSE)),"Not used","")</f>
         <v/>
@@ -4238,7 +4238,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C73,AssociatedElements!B$2:B3256,1,FALSE)),"Not used","")</f>
         <v/>
@@ -4262,7 +4262,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A74" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C74,AssociatedElements!B$2:B3257,1,FALSE)),"Not used","")</f>
         <v/>
@@ -4286,7 +4286,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" ht="31" x14ac:dyDescent="0.35">
       <c r="A75" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C75,AssociatedElements!B$2:B3302,1,FALSE)),"Not used","")</f>
         <v/>
@@ -4310,7 +4310,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" ht="31" x14ac:dyDescent="0.35">
       <c r="A76" s="16" t="str">
         <f>IF(ISNA(VLOOKUP(C76,AssociatedElements!B$2:B3326,1,FALSE)),"Not used","")</f>
         <v/>
@@ -4334,7 +4334,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" s="16" t="str">
         <f>IF(ISNA(VLOOKUP(C77,AssociatedElements!B$2:B3333,1,FALSE)),"Not used","")</f>
         <v/>
@@ -4358,7 +4358,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C78,AssociatedElements!B$2:B3258,1,FALSE)),"Not used","")</f>
         <v/>
@@ -4382,7 +4382,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A79" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C79,AssociatedElements!B$2:B3260,1,FALSE)),"Not used","")</f>
         <v/>
@@ -4406,7 +4406,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" s="16" t="str">
         <f>IF(ISNA(VLOOKUP(C80,AssociatedElements!B$2:B3339,1,FALSE)),"Not used","")</f>
         <v>Not used</v>
@@ -4430,7 +4430,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" ht="31" x14ac:dyDescent="0.35">
       <c r="A81" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C81,AssociatedElements!B$2:B3262,1,FALSE)),"Not used","")</f>
         <v/>
@@ -4454,7 +4454,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A82" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C82,AssociatedElements!B$2:B3263,1,FALSE)),"Not used","")</f>
         <v/>
@@ -4478,7 +4478,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" ht="62" x14ac:dyDescent="0.35">
       <c r="A83" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C83,AssociatedElements!B$2:B3264,1,FALSE)),"Not used","")</f>
         <v/>
@@ -4502,7 +4502,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C84,AssociatedElements!B$2:B3265,1,FALSE)),"Not used","")</f>
         <v/>
@@ -4526,7 +4526,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A85" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C85,AssociatedElements!B$2:B3266,1,FALSE)),"Not used","")</f>
         <v/>
@@ -4550,7 +4550,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A86" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C86,AssociatedElements!B$2:B3267,1,FALSE)),"Not used","")</f>
         <v/>
@@ -4574,7 +4574,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A87" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C87,AssociatedElements!B$2:B3268,1,FALSE)),"Not used","")</f>
         <v/>
@@ -4598,7 +4598,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C88,AssociatedElements!B$2:B3269,1,FALSE)),"Not used","")</f>
         <v/>
@@ -4622,7 +4622,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C89,AssociatedElements!B$2:B3270,1,FALSE)),"Not used","")</f>
         <v/>
@@ -4638,7 +4638,7 @@
       </c>
       <c r="G89" s="4"/>
     </row>
-    <row r="90" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C90,AssociatedElements!B$2:B3271,1,FALSE)),"Not used","")</f>
         <v/>
@@ -4662,7 +4662,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C91,AssociatedElements!B$2:B3272,1,FALSE)),"Not used","")</f>
         <v/>
@@ -4686,7 +4686,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" ht="31" x14ac:dyDescent="0.35">
       <c r="A92" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C92,AssociatedElements!B$2:B3273,1,FALSE)),"Not used","")</f>
         <v/>
@@ -4710,7 +4710,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C93,AssociatedElements!B$2:B3274,1,FALSE)),"Not used","")</f>
         <v/>
@@ -4734,7 +4734,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" ht="62" x14ac:dyDescent="0.35">
       <c r="A94" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C94,AssociatedElements!B$2:B3275,1,FALSE)),"Not used","")</f>
         <v/>
@@ -4758,7 +4758,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" ht="31" x14ac:dyDescent="0.35">
       <c r="A95" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C95,AssociatedElements!B$2:B3276,1,FALSE)),"Not used","")</f>
         <v/>
@@ -4782,7 +4782,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" ht="31" x14ac:dyDescent="0.35">
       <c r="A96" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C96,AssociatedElements!B$2:B3277,1,FALSE)),"Not used","")</f>
         <v/>
@@ -4806,7 +4806,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" ht="31" x14ac:dyDescent="0.35">
       <c r="A97" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C97,AssociatedElements!B$2:B3241,1,FALSE)),"Not used","")</f>
         <v/>
@@ -4830,7 +4830,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" ht="31" x14ac:dyDescent="0.35">
       <c r="A98" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C98,AssociatedElements!B$2:B3242,1,FALSE)),"Not used","")</f>
         <v/>
@@ -4854,7 +4854,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C99,AssociatedElements!B$2:B3278,1,FALSE)),"Not used","")</f>
         <v/>
@@ -4878,7 +4878,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" s="16" t="str">
         <f>IF(ISNA(VLOOKUP(C100,AssociatedElements!B$2:B3279,1,FALSE)),"Not used","")</f>
         <v/>
@@ -4902,7 +4902,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" s="16" t="str">
         <f>IF(ISNA(VLOOKUP(C101,AssociatedElements!B$2:B3280,1,FALSE)),"Not used","")</f>
         <v/>
@@ -4926,7 +4926,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" ht="93" x14ac:dyDescent="0.35">
       <c r="A102" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C102,AssociatedElements!B$2:B3279,1,FALSE)),"Not used","")</f>
         <v/>
@@ -4950,7 +4950,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" s="16" t="str">
         <f>IF(ISNA(VLOOKUP(C103,AssociatedElements!B$2:B3335,1,FALSE)),"Not used","")</f>
         <v/>
@@ -4974,7 +4974,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A104" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C104,AssociatedElements!B$2:B3280,1,FALSE)),"Not used","")</f>
         <v/>
@@ -4998,7 +4998,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C105,AssociatedElements!B$2:B3281,1,FALSE)),"Not used","")</f>
         <v/>
@@ -5019,7 +5019,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C106,AssociatedElements!B$2:B3282,1,FALSE)),"Not used","")</f>
         <v/>
@@ -5043,7 +5043,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C107,AssociatedElements!B$2:B3283,1,FALSE)),"Not used","")</f>
         <v/>
@@ -5067,7 +5067,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C108,AssociatedElements!B$2:B3284,1,FALSE)),"Not used","")</f>
         <v/>
@@ -5091,7 +5091,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A109" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C109,AssociatedElements!B$2:B3286,1,FALSE)),"Not used","")</f>
         <v/>
@@ -5115,7 +5115,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C110,AssociatedElements!B$2:B3287,1,FALSE)),"Not used","")</f>
         <v/>
@@ -5139,7 +5139,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C111,AssociatedElements!B$2:B3288,1,FALSE)),"Not used","")</f>
         <v/>
@@ -5163,7 +5163,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A112" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C112,AssociatedElements!B$2:B3289,1,FALSE)),"Not used","")</f>
         <v/>
@@ -5187,7 +5187,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A113" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C113,AssociatedElements!B$2:B3290,1,FALSE)),"Not used","")</f>
         <v/>
@@ -5211,7 +5211,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A114" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C114,AssociatedElements!B$2:B3291,1,FALSE)),"Not used","")</f>
         <v/>
@@ -5235,7 +5235,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" ht="31" x14ac:dyDescent="0.35">
       <c r="A115" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C115,AssociatedElements!B$2:B3292,1,FALSE)),"Not used","")</f>
         <v/>
@@ -5259,7 +5259,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A116" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C116,AssociatedElements!B$2:B3293,1,FALSE)),"Not used","")</f>
         <v/>
@@ -5283,7 +5283,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" ht="62" x14ac:dyDescent="0.35">
       <c r="A117" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C117,AssociatedElements!B$2:B3294,1,FALSE)),"Not used","")</f>
         <v/>
@@ -5307,7 +5307,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" ht="31" x14ac:dyDescent="0.35">
       <c r="A118" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C118,AssociatedElements!B$2:B3295,1,FALSE)),"Not used","")</f>
         <v/>
@@ -5331,7 +5331,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" ht="31" x14ac:dyDescent="0.35">
       <c r="A119" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C119,AssociatedElements!B$2:B3296,1,FALSE)),"Not used","")</f>
         <v/>
@@ -5355,7 +5355,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A120" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C120,AssociatedElements!B$2:B3298,1,FALSE)),"Not used","")</f>
         <v/>
@@ -5379,7 +5379,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C121,AssociatedElements!B$2:B3299,1,FALSE)),"Not used","")</f>
         <v/>
@@ -5403,7 +5403,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122" s="16" t="str">
         <f>IF(ISNA(VLOOKUP(C122,AssociatedElements!B$2:B3340,1,FALSE)),"Not used","")</f>
         <v/>
@@ -5427,7 +5427,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C123,AssociatedElements!B$2:B3303,1,FALSE)),"Not used","")</f>
         <v/>
@@ -5451,7 +5451,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C124,AssociatedElements!B$2:B3304,1,FALSE)),"Not used","")</f>
         <v/>
@@ -5473,7 +5473,7 @@
       </c>
       <c r="G124" s="4"/>
     </row>
-    <row r="125" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C125,AssociatedElements!B$2:B3305,1,FALSE)),"Not used","")</f>
         <v/>
@@ -5497,7 +5497,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C126,AssociatedElements!B$2:B3306,1,FALSE)),"Not used","")</f>
         <v/>
@@ -5519,7 +5519,7 @@
       </c>
       <c r="G126" s="4"/>
     </row>
-    <row r="127" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" ht="62" x14ac:dyDescent="0.35">
       <c r="A127" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C127,AssociatedElements!B$2:B3307,1,FALSE)),"Not used","")</f>
         <v/>
@@ -5543,7 +5543,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A128" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C128,AssociatedElements!B$2:B3308,1,FALSE)),"Not used","")</f>
         <v/>
@@ -5567,7 +5567,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A129" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C129,AssociatedElements!B$2:B3309,1,FALSE)),"Not used","")</f>
         <v/>
@@ -5591,7 +5591,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A130" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C130,AssociatedElements!B$2:B3310,1,FALSE)),"Not used","")</f>
         <v/>
@@ -5615,7 +5615,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7" ht="31" x14ac:dyDescent="0.35">
       <c r="A131" s="16" t="str">
         <f>IF(ISNA(VLOOKUP(C131,AssociatedElements!B$2:B3342,1,FALSE)),"Not used","")</f>
         <v/>
@@ -5639,7 +5639,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A132" s="16" t="str">
         <f>IF(ISNA(VLOOKUP(C132,AssociatedElements!B$2:B3343,1,FALSE)),"Not used","")</f>
         <v/>
@@ -5663,7 +5663,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C133,AssociatedElements!B$2:B3311,1,FALSE)),"Not used","")</f>
         <v/>
@@ -5687,7 +5687,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C134,AssociatedElements!B$2:B3312,1,FALSE)),"Not used","")</f>
         <v/>
@@ -5711,7 +5711,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7" ht="31" x14ac:dyDescent="0.35">
       <c r="A135" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C135,AssociatedElements!B$2:B3313,1,FALSE)),"Not used","")</f>
         <v/>
@@ -5735,7 +5735,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A136" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C136,AssociatedElements!B$2:B3314,1,FALSE)),"Not used","")</f>
         <v/>
@@ -5759,7 +5759,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A137" s="16" t="str">
         <f>IF(ISNA(VLOOKUP(C137,AssociatedElements!B$2:B3314,1,FALSE)),"Not used","")</f>
         <v/>
@@ -5783,7 +5783,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C138,AssociatedElements!B$2:B3315,1,FALSE)),"Not used","")</f>
         <v/>
@@ -5807,7 +5807,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7" ht="31" x14ac:dyDescent="0.35">
       <c r="A139" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C139,AssociatedElements!B$2:B3316,1,FALSE)),"Not used","")</f>
         <v/>
@@ -5829,7 +5829,7 @@
       </c>
       <c r="G139" s="4"/>
     </row>
-    <row r="140" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7" ht="31" x14ac:dyDescent="0.35">
       <c r="A140" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C140,AssociatedElements!B$2:B3317,1,FALSE)),"Not used","")</f>
         <v/>
@@ -5848,7 +5848,7 @@
       </c>
       <c r="G140" s="4"/>
     </row>
-    <row r="141" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7" ht="31" x14ac:dyDescent="0.35">
       <c r="A141" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C141,AssociatedElements!B$2:B3318,1,FALSE)),"Not used","")</f>
         <v/>
@@ -5872,7 +5872,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7" ht="31" x14ac:dyDescent="0.35">
       <c r="A142" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C142,AssociatedElements!B$2:B3319,1,FALSE)),"Not used","")</f>
         <v/>
@@ -5896,7 +5896,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A143" s="16" t="str">
         <f>IF(ISNA(VLOOKUP(C143,AssociatedElements!B$2:B3338,1,FALSE)),"Not used","")</f>
         <v/>
@@ -5920,7 +5920,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A144" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C144,AssociatedElements!B$2:B3320,1,FALSE)),"Not used","")</f>
         <v/>
@@ -5944,7 +5944,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7" ht="62" x14ac:dyDescent="0.35">
       <c r="A145" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C145,AssociatedElements!B$2:B3321,1,FALSE)),"Not used","")</f>
         <v/>
@@ -5968,7 +5968,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7" ht="62" x14ac:dyDescent="0.35">
       <c r="A146" s="11" t="str">
         <f>IF(ISNA(VLOOKUP(C146,AssociatedElements!B$2:B3322,1,FALSE)),"Not used","")</f>
         <v/>
@@ -6009,12 +6009,12 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:C566"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
+    <sheetView zoomScale="106" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B140" sqref="B140"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="31.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.6640625" style="5" customWidth="1"/>
@@ -6022,7 +6022,7 @@
     <col min="4" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>419</v>
       </c>
@@ -6033,7 +6033,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B2,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -6045,7 +6045,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(#REF!,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -6057,7 +6057,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B4,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -6069,7 +6069,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B5,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -6081,7 +6081,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B6,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -6093,7 +6093,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B7,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -6105,7 +6105,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B8,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -6117,7 +6117,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B9,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -6129,7 +6129,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B10,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -6141,7 +6141,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B11,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -6153,7 +6153,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B12,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -6165,7 +6165,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B13,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -6177,7 +6177,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B14,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -6189,7 +6189,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B15,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -6201,7 +6201,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B16,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -6213,7 +6213,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B17,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -6225,7 +6225,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B18,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -6237,7 +6237,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B19,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -6249,7 +6249,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B20,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -6261,7 +6261,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B21,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -6273,7 +6273,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B22,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -6285,7 +6285,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B23,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -6297,7 +6297,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B24,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -6309,7 +6309,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B25,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -6321,7 +6321,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B26,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -6333,7 +6333,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B27,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -6345,7 +6345,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B28,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -6357,7 +6357,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B29,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -6369,7 +6369,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B30,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -6381,7 +6381,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B31,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -6393,7 +6393,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B32,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -6405,7 +6405,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B33,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -6417,7 +6417,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B34,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -6429,7 +6429,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B35,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -6441,7 +6441,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B36,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -6453,7 +6453,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B37,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -6465,7 +6465,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B38,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -6477,7 +6477,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B39,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -6489,7 +6489,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B40,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -6501,7 +6501,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B41,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -6513,7 +6513,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B42,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -6525,7 +6525,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B43,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -6537,7 +6537,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B44,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -6549,7 +6549,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B45,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -6561,7 +6561,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B46,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -6573,7 +6573,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B47,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -6585,7 +6585,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B48,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -6597,7 +6597,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B49,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -6609,7 +6609,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B50,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -6621,7 +6621,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B51,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -6633,7 +6633,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B52,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -6645,7 +6645,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B53,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -6657,7 +6657,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B54,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -6669,7 +6669,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B55,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -6681,7 +6681,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B56,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -6693,7 +6693,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B57,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -6705,7 +6705,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B58,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -6717,7 +6717,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B59,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -6729,7 +6729,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B60,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -6741,7 +6741,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B61,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -6753,7 +6753,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B62,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -6765,7 +6765,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B63,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -6777,7 +6777,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B64,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -6789,7 +6789,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B65,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -6801,7 +6801,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B66,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -6813,7 +6813,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B67,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -6825,7 +6825,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B68,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -6837,7 +6837,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B69,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -6849,7 +6849,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B70,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -6861,7 +6861,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B71,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -6873,7 +6873,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B72,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -6885,7 +6885,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B73,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -6897,7 +6897,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B74,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -6909,7 +6909,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B75,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -6921,7 +6921,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B76,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -6933,7 +6933,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B77,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -6945,7 +6945,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B78,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -6957,7 +6957,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B79,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -6969,7 +6969,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B80,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -6981,7 +6981,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B81,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -6993,7 +6993,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B82,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -7005,7 +7005,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B83,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -7017,7 +7017,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B84,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -7029,7 +7029,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B85,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -7041,7 +7041,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B86,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -7053,7 +7053,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B87,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -7065,7 +7065,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B88,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -7077,7 +7077,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B89,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -7089,7 +7089,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B90,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -7101,7 +7101,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B91,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -7113,7 +7113,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B92,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -7125,7 +7125,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B93,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -7137,7 +7137,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B94,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -7149,7 +7149,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B95,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -7161,7 +7161,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B96,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -7173,7 +7173,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B97,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -7185,7 +7185,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B98,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -7197,7 +7197,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B99,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -7209,7 +7209,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B100,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -7221,7 +7221,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B101,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -7233,7 +7233,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B102,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -7245,7 +7245,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B103,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -7257,7 +7257,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B104,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -7269,7 +7269,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B105,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -7281,7 +7281,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B106,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -7293,7 +7293,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B107,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -7305,7 +7305,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B108,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -7317,7 +7317,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B109,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -7329,7 +7329,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B110,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -7341,7 +7341,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B111,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -7353,7 +7353,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B112,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -7365,7 +7365,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B113,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -7377,7 +7377,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B114,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -7389,7 +7389,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B115,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -7401,7 +7401,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B116,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -7413,7 +7413,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B117,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -7425,7 +7425,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B118,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -7437,7 +7437,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B119,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -7449,7 +7449,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B120,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -7461,7 +7461,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B121,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -7473,7 +7473,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B122,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -7485,7 +7485,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B123,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -7497,7 +7497,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B124,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -7509,7 +7509,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B125,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -7521,7 +7521,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B126,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -7533,7 +7533,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B127,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -7545,7 +7545,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B128,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -7557,7 +7557,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B129,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -7569,7 +7569,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B130,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -7581,7 +7581,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B131,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -7593,7 +7593,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B132,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -7605,7 +7605,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B133,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -7617,7 +7617,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B134,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -7629,7 +7629,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B135,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -7641,7 +7641,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B136,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -7653,7 +7653,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B137,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -7665,7 +7665,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B138,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -7677,7 +7677,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B139,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -7689,7 +7689,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B140,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -7701,7 +7701,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B141,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -7713,7 +7713,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B142,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -7725,7 +7725,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B143,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -7737,7 +7737,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B144,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -7749,7 +7749,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B145,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -7761,7 +7761,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B146,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -7773,7 +7773,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B147,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -7785,7 +7785,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B148,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -7797,7 +7797,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B149,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -7809,7 +7809,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B150,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -7821,7 +7821,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B151,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -7833,7 +7833,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B152,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -7845,7 +7845,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A153" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B153,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -7857,7 +7857,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B154,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -7869,7 +7869,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B155,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -7881,7 +7881,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A156" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B156,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -7893,7 +7893,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="157" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A157" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B157,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -7905,7 +7905,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B158,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -7917,7 +7917,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A159" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B159,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -7929,7 +7929,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B160,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -7941,7 +7941,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A161" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B161,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -7953,7 +7953,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A162" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B162,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -7965,7 +7965,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A163" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B163,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -7977,7 +7977,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A164" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B164,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -7989,7 +7989,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A165" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B165,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -8001,7 +8001,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A166" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B166,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -8013,7 +8013,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A167" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B167,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -8025,7 +8025,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A168" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B168,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -8037,7 +8037,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A169" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B169,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -8049,7 +8049,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A170" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B170,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -8061,7 +8061,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A171" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B171,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -8073,7 +8073,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A172" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B172,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -8085,7 +8085,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A173" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B173,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -8097,7 +8097,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A174" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B174,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -8109,7 +8109,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A175" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B175,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -8121,7 +8121,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A176" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B176,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -8133,7 +8133,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A177" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B177,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -8145,7 +8145,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A178" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B178,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -8157,7 +8157,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A179" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B179,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -8169,7 +8169,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A180" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B180,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -8181,7 +8181,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A181" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B181,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -8193,7 +8193,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A182" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B182,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -8205,7 +8205,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A183" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B183,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -8217,7 +8217,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A184" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B184,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -8229,7 +8229,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A185" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B185,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -8241,7 +8241,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A186" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B186,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -8253,7 +8253,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A187" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B187,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -8265,7 +8265,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A188" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B188,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -8277,7 +8277,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A189" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B189,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -8289,7 +8289,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A190" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B190,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -8301,7 +8301,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A191" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B191,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -8313,7 +8313,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A192" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B192,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -8325,7 +8325,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A193" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B193,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -8337,7 +8337,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A194" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B194,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -8349,7 +8349,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A195" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B195,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -8361,7 +8361,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A196" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B196,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -8373,7 +8373,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A197" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B197,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -8385,7 +8385,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A198" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B198,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -8397,7 +8397,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A199" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B199,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -8409,7 +8409,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A200" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B200,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -8421,7 +8421,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A201" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B201,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -8433,7 +8433,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A202" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B202,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -8445,7 +8445,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A203" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B203,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -8457,7 +8457,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A204" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B204,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -8469,7 +8469,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A205" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B205,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -8481,7 +8481,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A206" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B206,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -8493,7 +8493,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A207" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B207,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -8505,7 +8505,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A208" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B208,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -8517,7 +8517,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A209" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B209,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -8529,7 +8529,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A210" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B210,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -8541,7 +8541,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A211" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B211,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -8553,7 +8553,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A212" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B212,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -8565,7 +8565,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A213" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B213,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -8577,7 +8577,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A214" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B214,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -8589,7 +8589,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A215" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B215,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -8601,7 +8601,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A216" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B216,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -8613,7 +8613,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A217" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B217,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -8625,7 +8625,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A218" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B218,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -8637,7 +8637,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A219" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B219,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -8649,7 +8649,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A220" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B220,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -8661,7 +8661,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A221" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B221,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -8673,7 +8673,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A222" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B222,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -8685,7 +8685,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A223" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B223,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -8697,7 +8697,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A224" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B224,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -8709,7 +8709,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A225" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B225,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -8721,7 +8721,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A226" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B226,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -8733,7 +8733,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A227" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B227,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -8745,7 +8745,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A228" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B228,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -8757,7 +8757,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A229" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B229,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -8769,7 +8769,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A230" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B230,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -8781,7 +8781,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A231" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B231,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -8793,7 +8793,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A232" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B232,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -8805,7 +8805,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A233" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B233,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -8817,7 +8817,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A234" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B234,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -8829,7 +8829,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A235" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B235,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -8841,7 +8841,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A236" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B236,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -8853,7 +8853,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A237" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B237,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -8865,7 +8865,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A238" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B238,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -8877,7 +8877,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A239" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B239,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -8889,7 +8889,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A240" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B240,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -8901,7 +8901,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A241" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B241,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -8913,7 +8913,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A242" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B242,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -8925,7 +8925,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A243" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B243,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -8937,7 +8937,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A244" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B244,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -8949,7 +8949,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A245" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B245,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -8961,7 +8961,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A246" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B246,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -8973,7 +8973,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A247" s="21" t="str">
         <f>IF(ISNA(VLOOKUP(B247,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -8985,7 +8985,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A248" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B248,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -8997,7 +8997,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A249" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B249,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -9009,7 +9009,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A250" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B250,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -9021,7 +9021,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A251" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B251,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -9033,7 +9033,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A252" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B252,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -9045,7 +9045,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A253" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B253,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -9057,7 +9057,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A254" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B254,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -9069,7 +9069,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A255" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B255,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -9081,7 +9081,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A256" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B256,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -9093,7 +9093,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A257" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B257,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -9105,7 +9105,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A258" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B258,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -9117,7 +9117,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A259" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B259,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -9129,7 +9129,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A260" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B260,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -9141,7 +9141,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A261" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B261,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -9153,7 +9153,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A262" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B262,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -9165,7 +9165,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A263" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B263,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -9177,7 +9177,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A264" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B264,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -9189,7 +9189,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A265" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B265,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -9201,7 +9201,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A266" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B266,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -9213,7 +9213,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A267" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B267,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -9225,7 +9225,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A268" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B268,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -9237,7 +9237,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A269" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B269,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -9249,7 +9249,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A270" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B270,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -9261,7 +9261,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A271" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B271,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -9273,7 +9273,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A272" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B272,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -9285,7 +9285,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A273" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B273,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -9297,7 +9297,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A274" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B274,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -9309,7 +9309,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A275" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B275,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -9321,7 +9321,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A276" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B276,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -9333,7 +9333,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A277" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B277,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -9345,7 +9345,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A278" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B278,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -9357,7 +9357,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A279" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B279,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -9369,7 +9369,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A280" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B280,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -9381,7 +9381,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A281" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B281,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -9393,7 +9393,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A282" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B282,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -9405,7 +9405,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A283" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B283,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -9417,7 +9417,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A284" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B284,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -9429,7 +9429,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A285" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B285,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -9441,7 +9441,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A286" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B286,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -9453,7 +9453,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A287" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B287,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -9465,7 +9465,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A288" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B288,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -9477,7 +9477,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A289" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B289,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -9489,7 +9489,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A290" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B290,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -9501,7 +9501,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A291" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B291,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -9513,7 +9513,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A292" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B292,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -9525,7 +9525,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A293" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B293,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -9537,7 +9537,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A294" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B294,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -9549,7 +9549,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A295" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B295,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -9561,7 +9561,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A296" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B296,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -9573,7 +9573,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A297" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B297,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -9585,7 +9585,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A298" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B298,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -9597,7 +9597,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A299" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B299,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -9609,7 +9609,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A300" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B300,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -9621,7 +9621,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A301" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B301,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -9633,7 +9633,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A302" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B302,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -9645,7 +9645,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A303" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B303,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -9657,7 +9657,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A304" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B304,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -9669,7 +9669,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A305" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B305,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -9681,7 +9681,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A306" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B306,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -9693,7 +9693,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A307" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B307,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -9705,7 +9705,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A308" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B308,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -9717,7 +9717,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A309" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B309,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -9729,7 +9729,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A310" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B310,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -9741,7 +9741,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A311" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B311,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -9753,7 +9753,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A312" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B312,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -9765,7 +9765,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A313" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B313,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -9777,7 +9777,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A314" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B314,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -9789,7 +9789,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A315" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B315,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -9801,7 +9801,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A316" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B316,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -9813,7 +9813,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A317" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B317,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -9825,7 +9825,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A318" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B318,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -9837,7 +9837,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A319" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B319,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -9849,7 +9849,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A320" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B320,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -9861,7 +9861,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A321" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B321,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -9873,7 +9873,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A322" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B322,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -9885,7 +9885,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A323" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B323,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -9897,7 +9897,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A324" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B324,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -9909,7 +9909,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A325" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B325,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -9921,7 +9921,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A326" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B326,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -9933,7 +9933,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A327" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B327,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -9945,7 +9945,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A328" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B328,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -9957,7 +9957,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A329" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B329,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -9969,7 +9969,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A330" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B330,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -9981,7 +9981,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A331" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B331,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -9993,7 +9993,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A332" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B332,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -10005,7 +10005,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A333" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B333,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -10017,7 +10017,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A334" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B334,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -10029,7 +10029,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A335" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B335,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -10041,7 +10041,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A336" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B336,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -10053,7 +10053,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A337" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B337,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -10065,7 +10065,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A338" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B338,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -10077,7 +10077,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A339" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B339,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -10089,7 +10089,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A340" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B340,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -10101,7 +10101,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A341" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B341,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -10113,7 +10113,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A342" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B342,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -10125,7 +10125,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A343" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B343,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -10137,7 +10137,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A344" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B344,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -10149,7 +10149,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A345" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B345,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -10161,7 +10161,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A346" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B346,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -10173,7 +10173,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A347" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B347,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -10185,7 +10185,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A348" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B348,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -10197,7 +10197,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A349" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B349,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -10209,7 +10209,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A350" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B350,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -10221,7 +10221,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A351" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B351,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -10233,7 +10233,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A352" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B352,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -10245,7 +10245,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A353" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B353,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -10257,7 +10257,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A354" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B354,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -10269,7 +10269,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A355" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B355,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -10281,7 +10281,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A356" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B356,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -10293,7 +10293,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="357" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A357" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B357,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -10305,7 +10305,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A358" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B358,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -10317,7 +10317,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A359" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B359,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -10329,7 +10329,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A360" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B360,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -10341,7 +10341,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A361" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B361,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -10353,7 +10353,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A362" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B362,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -10365,7 +10365,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A363" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B363,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -10377,7 +10377,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A364" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B364,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -10389,7 +10389,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A365" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B365,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -10401,7 +10401,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A366" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B366,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -10413,7 +10413,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A367" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B367,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -10425,7 +10425,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A368" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B368,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -10437,7 +10437,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A369" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B369,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -10449,7 +10449,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A370" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B370,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -10461,7 +10461,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A371" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B371,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -10473,7 +10473,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A372" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B372,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -10485,7 +10485,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A373" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B373,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -10497,7 +10497,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A374" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B374,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -10509,7 +10509,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A375" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B375,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -10521,7 +10521,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A376" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B376,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -10533,7 +10533,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A377" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B377,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -10545,7 +10545,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A378" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B378,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -10557,7 +10557,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A379" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B379,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -10569,7 +10569,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A380" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B380,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -10581,7 +10581,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A381" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B381,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -10593,7 +10593,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A382" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B382,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -10605,7 +10605,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A383" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B383,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
@@ -10617,1100 +10617,1100 @@
         <v>528</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A384" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B201,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
       <c r="C384" s="5"/>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A385" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B202,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A386" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B203,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A387" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B204,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A388" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B205,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A389" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B206,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A390" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B207,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A391" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B208,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A392" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B209,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A393" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B210,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A394" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B211,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A395" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B212,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A396" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B213,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A397" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B214,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A398" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B215,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A399" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B216,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A400" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B217,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A401" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B218,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A402" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B219,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A403" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B220,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A404" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B221,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A405" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B222,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A406" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B223,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A407" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B224,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A408" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B225,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A409" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B226,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A410" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B227,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A411" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B228,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A412" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B229,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A413" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B230,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A414" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B231,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A415" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B232,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A416" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B233,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A417" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B234,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A418" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B235,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A419" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B236,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A420" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B237,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A421" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B238,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A422" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B239,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A423" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B240,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A424" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B241,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A425" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B242,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A426" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B243,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A427" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B244,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A428" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B245,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A429" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B246,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A430" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B247,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A431" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B248,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A432" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B249,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A433" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B250,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A434" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B251,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A435" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B252,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A436" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B253,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A437" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B254,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A438" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B255,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A439" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B256,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A440" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B257,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A441" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B258,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A442" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B259,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A443" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B260,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A444" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B261,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A445" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B262,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A446" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B263,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A447" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B264,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A448" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B265,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A449" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B266,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A450" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B267,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A451" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B268,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A452" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B269,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A453" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B270,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A454" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B271,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A455" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B272,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A456" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B273,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A457" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B274,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A458" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B275,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A459" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B276,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A460" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B277,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A461" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B278,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A462" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B279,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A463" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B280,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A464" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B281,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A465" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B282,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A466" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B283,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A467" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B284,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A468" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B285,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A469" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B286,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A470" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B287,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A471" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B288,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A472" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B289,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A473" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B290,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A474" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B291,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A475" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B292,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A476" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B293,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A477" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B294,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A478" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B295,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A479" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B296,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A480" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B297,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A481" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B298,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A482" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B299,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A483" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B300,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A484" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B301,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A485" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B302,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A486" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B303,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A487" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B304,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A488" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B305,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A489" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B306,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A490" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B307,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A491" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B308,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A492" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B309,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A493" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B310,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A494" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B311,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A495" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B312,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A496" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B313,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A497" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B314,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A498" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B315,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A499" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B316,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A500" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B317,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A501" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B318,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A502" s="21" t="str">
         <f>IF(ISNA(VLOOKUP(B319,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A503" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B320,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A504" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B321,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A505" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B322,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A506" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B323,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A507" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B324,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A508" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B325,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A509" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B326,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A510" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B327,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="511" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A511" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B328,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="512" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A512" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B329,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A513" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B330,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="514" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A514" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B331,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="515" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A515" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B332,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="516" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A516" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B333,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="517" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A517" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B334,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="518" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A518" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B335,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="519" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A519" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B336,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="520" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A520" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B337,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="521" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A521" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B338,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="522" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A522" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B339,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="523" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A523" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B340,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="524" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A524" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B341,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="525" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A525" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B342,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="526" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A526" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B343,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="527" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A527" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B344,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="528" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A528" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B345,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A529" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B346,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A530" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B347,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A531" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B348,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A532" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B349,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A533" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B350,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A534" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B351,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A535" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B352,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A536" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B353,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A537" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B354,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A538" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B355,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A539" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B356,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A540" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B357,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A541" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B358,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="542" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A542" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B359,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="543" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A543" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B360,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="544" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A544" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B361,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="545" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A545" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B362,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="546" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A546" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B363,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="547" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A547" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B364,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="548" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A548" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B365,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="549" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A549" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B366,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="550" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A550" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B367,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="551" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A551" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B368,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="552" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A552" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B369,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="553" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A553" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B370,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="554" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A554" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B371,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="555" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A555" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B372,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="556" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A556" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B373,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="557" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A557" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B374,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="558" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A558" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B375,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="559" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A559" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B376,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="560" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A560" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B377,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="561" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A561" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B378,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="562" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A562" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B379,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="563" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A563" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B380,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="564" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A564" s="15" t="str">
         <f>IF(ISNA(VLOOKUP(B381,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="565" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A565" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B382,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
       </c>
     </row>
-    <row r="566" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A566" s="5" t="str">
         <f>IF(ISNA(VLOOKUP(B383,Definitions!C$2:C$2016,1,FALSE)),"Not listed","")</f>
         <v/>
